--- a/NformTester/NformTester/Keywordscripts/600.60.20.60_ServerOptionsEnableLiebertProtocolON.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.60_ServerOptionsEnableLiebertProtocolON.xlsx
@@ -3844,10 +3844,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocity_SearchStart$</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>$Velocity_SearchEnd$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3981,6 +3977,10 @@
   </si>
   <si>
     <t>"Liebert MPX/MPH - RPC1000"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Velocity_SearchStart$</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4550,8 +4550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4708,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4732,7 +4732,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4756,7 +4756,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4930,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="17"/>
@@ -4966,10 +4966,10 @@
         <v>850</v>
       </c>
       <c r="I14" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>851</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>852</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -5085,13 +5085,13 @@
         <v>7</v>
       </c>
       <c r="H18" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I18" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="J18" s="17" t="s">
         <v>854</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>855</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -5114,19 +5114,19 @@
         <v>559</v>
       </c>
       <c r="F19" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>856</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>853</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>857</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
@@ -5157,13 +5157,13 @@
         <v>7</v>
       </c>
       <c r="H20" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J20" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
@@ -5192,13 +5192,13 @@
         <v>7</v>
       </c>
       <c r="H21" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J21" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="H22" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I22" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J22" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
@@ -5260,13 +5260,13 @@
         <v>7</v>
       </c>
       <c r="H23" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I23" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J23" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -5293,13 +5293,13 @@
         <v>7</v>
       </c>
       <c r="H24" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I24" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J24" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -5326,13 +5326,13 @@
         <v>7</v>
       </c>
       <c r="H25" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I25" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J25" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -5356,13 +5356,13 @@
         <v>7</v>
       </c>
       <c r="H26" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I26" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I26" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J26" s="17" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -5386,13 +5386,13 @@
         <v>7</v>
       </c>
       <c r="H27" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I27" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I27" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J27" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
@@ -5416,13 +5416,13 @@
         <v>7</v>
       </c>
       <c r="H28" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I28" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I28" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J28" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
@@ -5446,13 +5446,13 @@
         <v>7</v>
       </c>
       <c r="H29" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I29" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J29" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
@@ -5476,13 +5476,13 @@
         <v>7</v>
       </c>
       <c r="H30" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I30" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I30" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J30" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
@@ -5506,13 +5506,13 @@
         <v>7</v>
       </c>
       <c r="H31" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I31" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I31" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J31" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
@@ -5536,13 +5536,13 @@
         <v>7</v>
       </c>
       <c r="H32" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I32" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I32" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J32" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
@@ -5566,13 +5566,13 @@
         <v>7</v>
       </c>
       <c r="H33" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I33" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I33" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J33" s="17" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
@@ -5596,13 +5596,13 @@
         <v>7</v>
       </c>
       <c r="H34" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I34" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I34" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J34" s="17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
@@ -5626,13 +5626,13 @@
         <v>7</v>
       </c>
       <c r="H35" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I35" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I35" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J35" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
@@ -5656,13 +5656,13 @@
         <v>7</v>
       </c>
       <c r="H36" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I36" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I36" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J36" s="17" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
@@ -5686,13 +5686,13 @@
         <v>7</v>
       </c>
       <c r="H37" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I37" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I37" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J37" s="17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
@@ -5716,13 +5716,13 @@
         <v>7</v>
       </c>
       <c r="H38" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I38" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I38" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J38" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
@@ -5737,7 +5737,7 @@
         <v>830</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>560</v>
@@ -5746,13 +5746,13 @@
         <v>7</v>
       </c>
       <c r="H39" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I39" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J39" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -5776,13 +5776,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I40" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="I40" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="J40" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -5864,7 +5864,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5942,7 +5942,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
